--- a/kaiseki/sac_num.xlsx
+++ b/kaiseki/sac_num.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1F768CA4-7AB5-4F90-8482-EF6929A9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E588DFE-2866-412D-90E4-69162E6FCEB3}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{1F768CA4-7AB5-4F90-8482-EF6929A9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{847C6AA7-8872-4F91-BD49-DBB34FD5BABD}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,26 +298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>se：0-20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>se：21-40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>se：41-60</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>se：61-80</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>se：81-100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>課題ごと</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
@@ -496,6 +476,26 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>SE：0-20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE：21-40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE：41-60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE：61-80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE：81-100</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -669,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -689,9 +689,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -812,7 +811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SE：0-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -889,7 +888,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SE：21-40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -975,7 +974,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SE：41-60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1064,7 +1063,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SE：61-80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1153,7 +1152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SE：81-100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1253,69 +1252,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>自己効力感</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45958552055993002"/>
-              <c:y val="0.91261519393409141"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1436,7 +1372,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1527,12 +1463,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1585,7 +1516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SE：0-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1671,7 +1602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SE：21-40</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1760,7 +1691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SE：41-60</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1849,7 +1780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SE：61-80</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1938,7 +1869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SE：81-100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2038,69 +1969,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>自己効力感</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.47005774278215223"/>
-              <c:y val="0.83854111986001745"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2221,7 +2089,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2303,37 +2171,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2343,12 +2180,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3462,15 +3294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>116417</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>157690</xdr:rowOff>
+      <xdr:colOff>645583</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>560917</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>159807</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3497,16 +3329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>455084</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168274</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>32807</xdr:rowOff>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3532,6 +3364,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3821,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5066,7 +4902,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5119,7 +4955,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5184,7 +5020,7 @@
         <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5253,7 +5089,7 @@
         <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5322,7 +5158,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5644,7 +5480,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5709,7 +5545,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5733,7 +5569,7 @@
         <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5760,7 +5596,7 @@
         <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5826,7 +5662,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -9019,11 +8855,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A855E3A2-A802-461D-AE5E-BEE1045A5BF6}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36:AB49"/>
+    <sheetView topLeftCell="X22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -11888,13 +11729,13 @@
         <v>0.70747226853404832</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="V30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:141" x14ac:dyDescent="0.15">
@@ -11944,22 +11785,22 @@
         <v>0.3655624936256911</v>
       </c>
       <c r="Q31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:141" x14ac:dyDescent="0.15">
@@ -11993,16 +11834,16 @@
         <v>44</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
@@ -12057,16 +11898,16 @@
         <v>0.27963219707386583</v>
       </c>
       <c r="T34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
@@ -12135,7 +11976,7 @@
         <v>52</v>
       </c>
       <c r="AD35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
@@ -12185,13 +12026,13 @@
         <v>98</v>
       </c>
       <c r="P36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AD36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12241,8 +12082,9 @@
         <v>95</v>
       </c>
       <c r="Q37" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="Y37" s="12"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -12291,30 +12133,30 @@
         <v>90</v>
       </c>
       <c r="R38" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s">
         <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s">
         <v>61</v>
       </c>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB38" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF38" s="15" t="s">
-        <v>99</v>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF38" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.15">
@@ -12364,7 +12206,7 @@
         <v>95</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R39" s="12">
         <f>CORREL(B2:O6,B35:O39)</f>
@@ -12382,22 +12224,22 @@
         <f>CORREL(B7:O16,B76:O85)</f>
         <v>2.4717775780091211E-2</v>
       </c>
-      <c r="Z39" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA39" s="13">
+      <c r="Z39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA39">
         <v>2.5638163177587963</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39">
         <v>2.0853545938112887</v>
       </c>
-      <c r="AD39" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE39" s="13">
+      <c r="AD39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE39">
         <v>1.9031388289863469</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39">
         <v>1.3350163337848489</v>
       </c>
     </row>
@@ -12448,7 +12290,7 @@
         <v>80</v>
       </c>
       <c r="Q40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R40" s="12">
         <f>CORREL(B17:O21,B50:O54)</f>
@@ -12466,22 +12308,22 @@
         <f>CORREL(B22:O31,B91:O100)</f>
         <v>-7.2367176340746492E-2</v>
       </c>
-      <c r="Z40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA40" s="13">
+      <c r="Z40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA40">
         <v>8.3192577712612292E-2</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40">
         <v>0.14159907758108756</v>
       </c>
-      <c r="AD40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE40" s="13">
+      <c r="AD40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE40">
         <v>0.33905185919273995</v>
       </c>
-      <c r="AF40" s="13">
+      <c r="AF40">
         <v>0.24883280389373141</v>
       </c>
     </row>
@@ -12531,22 +12373,22 @@
       <c r="O41" s="3">
         <v>70</v>
       </c>
-      <c r="Z41" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="13">
+      <c r="Z41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA41">
+        <v>70</v>
+      </c>
+      <c r="AB41">
         <v>140</v>
       </c>
-      <c r="AD41" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE41" s="13">
-        <v>70</v>
-      </c>
-      <c r="AF41" s="13">
+      <c r="AD41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE41">
+        <v>70</v>
+      </c>
+      <c r="AF41">
         <v>140</v>
       </c>
     </row>
@@ -12597,31 +12439,29 @@
         <v>75</v>
       </c>
       <c r="Q42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="U42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W42" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA42" s="13">
+        <v>86</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA42">
         <v>0.12222384445164144</v>
       </c>
-      <c r="AB42" s="13"/>
-      <c r="AD42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE42" s="13">
+      <c r="AD42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE42">
         <v>0.27876124050734485</v>
       </c>
-      <c r="AF42" s="13"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -12670,43 +12510,41 @@
         <v>70</v>
       </c>
       <c r="Q43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z43" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA43" s="13">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43" s="13"/>
-      <c r="AD43" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE43" s="13">
+      <c r="AD43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE43">
         <v>0</v>
       </c>
-      <c r="AF43" s="13"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -12763,12 +12601,12 @@
         <v>8.7732558693051736E-3</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>-11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>-2.4255800997167802</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>1.6576064680880683E-2</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12779,27 +12617,25 @@
         <v>0.84489216059207217</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>11.74734012447073</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>0.29045686275417532</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA44" s="13">
+        <v>0.77190277647375993</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA44">
         <v>208</v>
       </c>
-      <c r="AB44" s="13"/>
-      <c r="AD44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE44" s="13">
+      <c r="AD44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE44">
         <v>208</v>
       </c>
-      <c r="AF44" s="13"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -12848,31 +12684,29 @@
         <v>80</v>
       </c>
       <c r="Q45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S45" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="U45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W45" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z45" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA45" s="13">
+        <v>90</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA45">
         <v>9.3491606231779656</v>
       </c>
-      <c r="AB45" s="13"/>
-      <c r="AD45" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE45" s="13">
+      <c r="AD45" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE45">
         <v>7.3507081843070781</v>
       </c>
-      <c r="AF45" s="13"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -12921,43 +12755,41 @@
         <v>70</v>
       </c>
       <c r="Q46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X46" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA46" s="13">
+        <v>72</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA46">
         <v>7.1756118117694612E-18</v>
       </c>
-      <c r="AB46" s="13"/>
-      <c r="AD46" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE46" s="13">
+      <c r="AD46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE46">
         <v>2.218991913207352E-12</v>
       </c>
-      <c r="AF46" s="13"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -13037,20 +12869,18 @@
         <f>TDIST(ABS(W47),138,2)</f>
         <v>0.3954930028058633</v>
       </c>
-      <c r="Z47" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA47" s="13">
+      <c r="Z47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AD47" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE47" s="13">
+      <c r="AD47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-      <c r="AF47" s="13"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -13098,20 +12928,18 @@
       <c r="O48" s="3">
         <v>70</v>
       </c>
-      <c r="Z48" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA48" s="13">
+      <c r="Z48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA48">
         <v>1.4351223623538922E-17</v>
       </c>
-      <c r="AB48" s="13"/>
-      <c r="AD48" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE48" s="13">
+      <c r="AD48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE48">
         <v>4.437983826414704E-12</v>
       </c>
-      <c r="AF48" s="13"/>
     </row>
     <row r="49" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -13159,20 +12987,20 @@
       <c r="O49" s="3">
         <v>80</v>
       </c>
-      <c r="Z49" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA49" s="14">
+      <c r="Z49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AB49" s="14"/>
-      <c r="AD49" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE49" s="14">
+      <c r="AB49" s="13"/>
+      <c r="AD49" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE49" s="13">
         <v>1.9714346585202402</v>
       </c>
-      <c r="AF49" s="14"/>
+      <c r="AF49" s="13"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">

--- a/kaiseki/sac_num.xlsx
+++ b/kaiseki/sac_num.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{1F768CA4-7AB5-4F90-8482-EF6929A9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{847C6AA7-8872-4F91-BD49-DBB34FD5BABD}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{1F768CA4-7AB5-4F90-8482-EF6929A9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2587F2A-D104-48A1-8787-CC8793388966}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="116">
   <si>
     <t>imahashi</t>
   </si>
@@ -496,6 +496,26 @@
     <t>SE：81-100</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>se：0-20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>se：21-40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>se：41-60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>se：61-80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>se：81-100</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -905,8 +925,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.45824344295019581</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.77599731179374032</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.45824344295019581</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.77599731179374032</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -991,8 +1047,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.1858112269486292</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54364794874386313</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6362284921777066E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.49819910877099127</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.1858112269486292</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.54364794874386313</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6362284921777066E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.49819910877099127</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1080,8 +1178,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.33608798801586431</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2745621747634775</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33056279605024108</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.46596011559336814</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.33608798801586431</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2745621747634775</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.33056279605024108</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.46596011559336814</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1169,8 +1309,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.25062712753482053</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46408365414588054</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.43790290552242056</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.41944483848268399</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.25062712753482053</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46408365414588054</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.43790290552242056</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.41944483848268399</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1300,6 +1482,7 @@
         <c:axId val="644477048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1533,8 +1716,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>0.7168102235317706</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.99983379170141129</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>0.7168102235317706</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.99983379170141129</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1619,8 +1838,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.56227314289781716</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.48593397418473422</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.48075017876823506</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.45528855776468752</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.56227314289781716</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.48593397418473422</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.48075017876823506</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.45528855776468752</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1708,8 +1969,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.56172917845395709</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.63296831068209714</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.57211752874642585</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.52767606316920235</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.56172917845395709</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.63296831068209714</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.57211752874642585</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.52767606316920235</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1797,8 +2100,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.70518295715949153</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46492418956286202</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.6611598653294507</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.54084226663462387</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.70518295715949153</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.46492418956286202</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.6611598653294507</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.54084226663462387</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1886,8 +2231,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.57889215436379982</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.36958537321492413</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5992187244845345</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.4624593999953539</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.57889215436379982</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.36958537321492413</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.5992187244845345</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.4624593999953539</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3293,16 +3680,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>645583</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>645584</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3330,15 +3717,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>328084</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>43391</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>84668</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3657,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4690,7 +5077,7 @@
         <v>1.866310247489412</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4737,7 +5124,7 @@
         <v>2.6876893636052781</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4790,7 +5177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4852,7 +5239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4904,8 +5291,11 @@
       <c r="R20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4969,8 +5359,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>2.1758537654216585</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>0.45824344295019581</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>0.77599731179374032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -5038,8 +5443,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>1.9558482425843231</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>0.1858112269486292</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>0.54364794874386313</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>3.6362284921777066E-2</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>0.49819910877099127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -5107,8 +5531,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>2.1395478130121819</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>0.33608798801586431</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>0.2745621747634775</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>0.33056279605024108</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>0.46596011559336814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -5176,8 +5619,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>1.9709131109318383</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>0.25062712753482053</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>0.46408365414588054</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>0.43790290552242056</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>0.41944483848268399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -5224,7 +5686,7 @@
         <v>0.9060087121571635</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -5271,7 +5733,7 @@
         <v>0.63933276828820218</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5318,7 +5780,7 @@
         <v>0.84180735809215335</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5368,7 +5830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5430,7 +5892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5494,8 +5956,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>1.0046043721867559</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>0.7168102235317706</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>0.99983379170141129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5563,8 +6040,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>1.1508753046418974</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>0.56227314289781716</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>0.48593397418473422</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>0.48075017876823506</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>0.45528855776468752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>57</v>
       </c>
@@ -5587,8 +6083,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>1.3242302424381422</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>0.56172917845395709</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>0.63296831068209714</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>0.57211752874642585</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>0.52767606316920235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5614,8 +6129,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>1.4290336023369752</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>0.70518295715949153</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>0.46492418956286202</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>0.6611598653294507</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>0.54084226663462387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5680,8 +6214,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>1.0764075251380558</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>0.57889215436379982</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>0.36958537321492413</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>0.5992187244845345</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>0.4624593999953539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5728,7 +6281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5775,7 +6328,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5822,7 +6375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5869,7 +6422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5916,7 +6469,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5963,7 +6516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -6010,7 +6563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -6057,7 +6610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -6107,7 +6660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -6158,7 +6711,7 @@
         <v>0.22403678158713786</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -6205,7 +6758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -6255,7 +6808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -6306,7 +6859,7 @@
         <v>0.23236164020953864</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>

--- a/kaiseki/sac_num.xlsx
+++ b/kaiseki/sac_num.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{1F768CA4-7AB5-4F90-8482-EF6929A9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2587F2A-D104-48A1-8787-CC8793388966}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{1F768CA4-7AB5-4F90-8482-EF6929A9D347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7013BD05-2CAC-4CD0-9DD7-4E08CA957D32}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="2280" windowWidth="19740" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="118">
   <si>
     <t>imahashi</t>
   </si>
@@ -477,26 +477,6 @@
     <t>t 境界値 両側</t>
   </si>
   <si>
-    <t>SE：0-20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SE：21-40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SE：41-60</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SE：61-80</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SE：81-100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>se：0-20</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -514,6 +494,39 @@
   </si>
   <si>
     <t>se：81-100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -831,7 +844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -908,7 +921,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1030,7 +1043,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1161,7 +1174,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1292,7 +1305,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1456,7 +1469,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1507,7 +1520,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1520,12 +1533,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>接触回数</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+                  <a:t>サッカード回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3518518518518518E-2"/>
+              <c:y val="0.16621281714785655"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1539,7 +1560,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1571,7 +1592,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1590,45 +1611,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1637,6 +1619,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1699,7 +1712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1821,7 +1834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1952,7 +1965,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2083,7 +2096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2214,7 +2227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2442,11 +2455,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>接触回数</a:t>
+                  <a:t>サッカード回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8814814814814815E-2"/>
+              <c:y val="0.22639800233304169"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2511,45 +2532,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2558,6 +2540,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3680,16 +3693,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>645584</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552834</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3717,15 +3730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>328084</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>147108</xdr:rowOff>
+      <xdr:colOff>582084</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>84668</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1058</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>478751</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4044,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5233,7 +5246,7 @@
         <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="V19" t="s">
         <v>61</v>
@@ -5289,10 +5302,10 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
+        <v>113</v>
+      </c>
+      <c r="X20" t="s">
         <v>106</v>
-      </c>
-      <c r="X20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5345,7 +5358,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5360,7 +5373,7 @@
         <v>2.1758537654216585</v>
       </c>
       <c r="X21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y21" s="12">
         <f>_xlfn.STDEV.P($D$6)</f>
@@ -5425,7 +5438,7 @@
         <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5444,7 +5457,7 @@
         <v>1.9558482425843231</v>
       </c>
       <c r="X22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Y22" s="12">
         <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
@@ -5513,7 +5526,7 @@
         <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5532,7 +5545,7 @@
         <v>2.1395478130121819</v>
       </c>
       <c r="X23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y23" s="12">
         <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
@@ -5601,7 +5614,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5620,7 +5633,7 @@
         <v>1.9709131109318383</v>
       </c>
       <c r="X24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y24" s="12">
         <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
@@ -5876,9 +5889,6 @@
       <c r="O29">
         <v>0.67260053839422407</v>
       </c>
-      <c r="R29" t="s">
-        <v>62</v>
-      </c>
       <c r="S29" t="s">
         <v>64</v>
       </c>
@@ -5942,7 +5952,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5957,7 +5967,7 @@
         <v>1.0046043721867559</v>
       </c>
       <c r="X30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Z30" s="12">
         <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
@@ -6022,7 +6032,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -6041,7 +6051,7 @@
         <v>1.1508753046418974</v>
       </c>
       <c r="X31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y31" s="12">
         <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
@@ -6065,7 +6075,7 @@
         <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -6084,7 +6094,7 @@
         <v>1.3242302424381422</v>
       </c>
       <c r="X32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Y32" s="12">
         <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
@@ -6111,7 +6121,7 @@
         <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -6130,7 +6140,7 @@
         <v>1.4290336023369752</v>
       </c>
       <c r="X33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y33" s="12">
         <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
@@ -6196,7 +6206,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -6215,7 +6225,7 @@
         <v>1.0764075251380558</v>
       </c>
       <c r="X34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y34" s="12">
         <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
@@ -9408,8 +9418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A855E3A2-A802-461D-AE5E-BEE1045A5BF6}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="X22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView topLeftCell="X25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35:AN47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12382,7 +12392,7 @@
         <v>1.9061849968388399E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12399,7 +12409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12463,7 +12473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12531,8 +12541,14 @@
       <c r="AD35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12588,7 +12604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12638,8 +12654,22 @@
         <v>78</v>
       </c>
       <c r="Y37" s="12"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN37" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12711,8 +12741,26 @@
       <c r="AF38" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI38">
+        <v>2.5638163177587963</v>
+      </c>
+      <c r="AJ38">
+        <v>2.0853545938112887</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM38">
+        <v>1.9031388289863469</v>
+      </c>
+      <c r="AN38">
+        <v>1.3350163337848489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12795,8 +12843,26 @@
       <c r="AF39">
         <v>1.3350163337848489</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI39">
+        <v>8.3192577712612292E-2</v>
+      </c>
+      <c r="AJ39">
+        <v>0.14159907758108756</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM39">
+        <v>0.33905185919273995</v>
+      </c>
+      <c r="AN39">
+        <v>0.24883280389373141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12879,8 +12945,26 @@
       <c r="AF40">
         <v>0.24883280389373141</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI40">
+        <v>70</v>
+      </c>
+      <c r="AJ40">
+        <v>140</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM40">
+        <v>70</v>
+      </c>
+      <c r="AN40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12944,8 +13028,20 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -13015,8 +13111,20 @@
       <c r="AE42">
         <v>0.27876124050734485</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI42">
+        <v>174</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM42">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -13098,8 +13206,20 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI43">
+        <v>10.2010993377585</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM43">
+        <v>6.982018682521673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -13189,8 +13309,20 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI44">
+        <v>9.4799445641916739E-20</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM44">
+        <v>8.4414510405655565E-11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -13260,8 +13392,20 @@
       <c r="AE45">
         <v>7.3507081843070781</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI45">
+        <v>1.6536580165162231</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM45">
+        <v>1.6575443190874708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -13343,8 +13487,20 @@
       <c r="AE46">
         <v>2.218991913207352E-12</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI46">
+        <v>1.8959889128383348E-19</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM46">
+        <v>1.6882902081131113E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13434,8 +13590,22 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>1.9736914397560745</v>
+      </c>
+      <c r="AJ47" s="13"/>
+      <c r="AL47" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>1.9797637625053852</v>
+      </c>
+      <c r="AN47" s="13"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
